--- a/data/pca/factorExposure/factorExposure_2014-11-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-11-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,21 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +726,57 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>-0.002575003840299946</v>
+        <v>-0.009076246158955661</v>
       </c>
       <c r="C2">
-        <v>0.07282201598024396</v>
+        <v>0.07118213931395717</v>
       </c>
       <c r="D2">
-        <v>-0.1531064567495347</v>
+        <v>0.00940202854414951</v>
       </c>
       <c r="E2">
-        <v>-0.1707192322803564</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.1806332635874593</v>
+      </c>
+      <c r="F2">
+        <v>0.03972442107358607</v>
+      </c>
+      <c r="G2">
+        <v>-0.07012051354827131</v>
+      </c>
+      <c r="H2">
+        <v>-0.05159227047800341</v>
+      </c>
+      <c r="I2">
+        <v>0.1028498094751862</v>
+      </c>
+      <c r="J2">
+        <v>0.2344432851317429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +790,57 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>-0.01310019307206264</v>
+        <v>-0.01241814949880329</v>
       </c>
       <c r="C4">
-        <v>0.1457313788953287</v>
+        <v>0.1488590358254142</v>
       </c>
       <c r="D4">
-        <v>-0.08073199451227225</v>
+        <v>-0.02178138997987268</v>
       </c>
       <c r="E4">
-        <v>-0.07139506531253034</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.1082623084134405</v>
+      </c>
+      <c r="F4">
+        <v>-0.06996622151674403</v>
+      </c>
+      <c r="G4">
+        <v>-0.009649617475924063</v>
+      </c>
+      <c r="H4">
+        <v>-0.1015900170676867</v>
+      </c>
+      <c r="I4">
+        <v>-0.01401497151478039</v>
+      </c>
+      <c r="J4">
+        <v>0.1322354003469165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +854,377 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>-0.01485211620209545</v>
+        <v>-0.03086525624695709</v>
       </c>
       <c r="C6">
-        <v>0.07138898964875708</v>
+        <v>0.07346264663413658</v>
       </c>
       <c r="D6">
-        <v>-0.06174015135202342</v>
+        <v>-0.00776237236619283</v>
       </c>
       <c r="E6">
-        <v>-0.09401256276978635</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.1103897006127347</v>
+      </c>
+      <c r="F6">
+        <v>0.0340488707604881</v>
+      </c>
+      <c r="G6">
+        <v>0.03924414674308738</v>
+      </c>
+      <c r="H6">
+        <v>-0.0328178062108451</v>
+      </c>
+      <c r="I6">
+        <v>0.04917786098848938</v>
+      </c>
+      <c r="J6">
+        <v>0.005823904074297599</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.01832540562271797</v>
+        <v>-0.005366949324252417</v>
       </c>
       <c r="C7">
-        <v>0.04899495818181792</v>
+        <v>0.06742787357078661</v>
       </c>
       <c r="D7">
-        <v>-0.0358240955828113</v>
+        <v>-0.002134844600887888</v>
       </c>
       <c r="E7">
-        <v>-0.05824975187218918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05461346816268836</v>
+      </c>
+      <c r="F7">
+        <v>-0.0192730428091893</v>
+      </c>
+      <c r="G7">
+        <v>0.05829251917626681</v>
+      </c>
+      <c r="H7">
+        <v>-0.08176365745381785</v>
+      </c>
+      <c r="I7">
+        <v>0.009901215015912916</v>
+      </c>
+      <c r="J7">
+        <v>0.03620541887930383</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.01495399287307789</v>
+        <v>0.008612295653834765</v>
       </c>
       <c r="C8">
-        <v>0.07191916129994638</v>
+        <v>0.06971461839357351</v>
       </c>
       <c r="D8">
-        <v>-0.06361941476377705</v>
+        <v>-0.02313947425034425</v>
       </c>
       <c r="E8">
-        <v>-0.1289220119364408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.09194004166301989</v>
+      </c>
+      <c r="F8">
+        <v>-0.02989470973466341</v>
+      </c>
+      <c r="G8">
+        <v>-0.05263525725269814</v>
+      </c>
+      <c r="H8">
+        <v>-0.0236241349660069</v>
+      </c>
+      <c r="I8">
+        <v>0.008392493068290218</v>
+      </c>
+      <c r="J8">
+        <v>0.02409949356343674</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>-0.007103556052763417</v>
+        <v>-0.007822724446810602</v>
       </c>
       <c r="C9">
-        <v>0.1239590420464197</v>
+        <v>0.1164679082212959</v>
       </c>
       <c r="D9">
-        <v>-0.05377064029465391</v>
+        <v>-0.01678252516180072</v>
       </c>
       <c r="E9">
-        <v>-0.06393227566032941</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.06786196526766811</v>
+      </c>
+      <c r="F9">
+        <v>-0.01589156130702957</v>
+      </c>
+      <c r="G9">
+        <v>-0.0002718073480778776</v>
+      </c>
+      <c r="H9">
+        <v>-0.09691761158024093</v>
+      </c>
+      <c r="I9">
+        <v>0.006455229001585402</v>
+      </c>
+      <c r="J9">
+        <v>0.06345531629698445</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.258451388871433</v>
+        <v>-0.251757944173147</v>
       </c>
       <c r="C10">
-        <v>-0.08573357063266143</v>
+        <v>-0.08274425018262181</v>
       </c>
       <c r="D10">
-        <v>-0.03766302884895367</v>
+        <v>0.002224276751682805</v>
       </c>
       <c r="E10">
-        <v>0.04931958335762293</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0141130711885331</v>
+      </c>
+      <c r="F10">
+        <v>-0.01258711353839492</v>
+      </c>
+      <c r="G10">
+        <v>0.01280742557623941</v>
+      </c>
+      <c r="H10">
+        <v>-0.03715944872092233</v>
+      </c>
+      <c r="I10">
+        <v>-0.1664182799203441</v>
+      </c>
+      <c r="J10">
+        <v>-0.08886783522860554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>-0.001866611066535694</v>
+        <v>-0.009995744535069287</v>
       </c>
       <c r="C11">
-        <v>0.06232573601365741</v>
+        <v>0.07999298150716076</v>
       </c>
       <c r="D11">
-        <v>-0.02340017288881885</v>
+        <v>-0.01827659272032537</v>
       </c>
       <c r="E11">
-        <v>-0.0310554755864025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02476032308278386</v>
+      </c>
+      <c r="F11">
+        <v>-0.009133767413296247</v>
+      </c>
+      <c r="G11">
+        <v>0.03102376036369908</v>
+      </c>
+      <c r="H11">
+        <v>-0.0317726106409587</v>
+      </c>
+      <c r="I11">
+        <v>-0.006470163885138547</v>
+      </c>
+      <c r="J11">
+        <v>-0.03075796411200836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>-0.004748648077781578</v>
+        <v>-0.01188587793328635</v>
       </c>
       <c r="C12">
-        <v>0.0588355158190248</v>
+        <v>0.06280152424470634</v>
       </c>
       <c r="D12">
-        <v>-0.01782986479145426</v>
+        <v>-0.007602568723051133</v>
       </c>
       <c r="E12">
-        <v>-0.02569620904947343</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.02203927349125448</v>
+      </c>
+      <c r="F12">
+        <v>0.02114017054823233</v>
+      </c>
+      <c r="G12">
+        <v>0.03347381716132867</v>
+      </c>
+      <c r="H12">
+        <v>-0.03317551234256847</v>
+      </c>
+      <c r="I12">
+        <v>-0.01087575348381101</v>
+      </c>
+      <c r="J12">
+        <v>-0.005280585792009377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>-0.004446482178109296</v>
+        <v>-0.001057832466993336</v>
       </c>
       <c r="C13">
-        <v>0.08495954500245467</v>
+        <v>0.1118242007391786</v>
       </c>
       <c r="D13">
-        <v>-0.0797519989658952</v>
+        <v>0.005295771449139884</v>
       </c>
       <c r="E13">
-        <v>-0.1224487649926262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.1560570771948323</v>
+      </c>
+      <c r="F13">
+        <v>0.102033897457205</v>
+      </c>
+      <c r="G13">
+        <v>0.06919485748048364</v>
+      </c>
+      <c r="H13">
+        <v>-0.06910668090793717</v>
+      </c>
+      <c r="I13">
+        <v>-0.1101590359856791</v>
+      </c>
+      <c r="J13">
+        <v>-0.02424364933927802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.006293625050557362</v>
+        <v>-0.007857767694709573</v>
       </c>
       <c r="C14">
-        <v>0.06035476912278522</v>
+        <v>0.07923912241805875</v>
       </c>
       <c r="D14">
-        <v>-0.03184510309189294</v>
+        <v>-0.02535615984172575</v>
       </c>
       <c r="E14">
-        <v>-0.06118144869402391</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.09157101026456822</v>
+      </c>
+      <c r="F14">
+        <v>0.0410131969152227</v>
+      </c>
+      <c r="G14">
+        <v>0.09551603292578864</v>
+      </c>
+      <c r="H14">
+        <v>-0.1766719043060808</v>
+      </c>
+      <c r="I14">
+        <v>0.0271763618750781</v>
+      </c>
+      <c r="J14">
+        <v>-0.1798240174154775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.002014070944433617</v>
+        <v>0.001738774127463281</v>
       </c>
       <c r="C15">
-        <v>0.06983608655924319</v>
+        <v>0.07175833952580088</v>
       </c>
       <c r="D15">
-        <v>-0.05381116755070439</v>
+        <v>-0.008717167302641679</v>
       </c>
       <c r="E15">
-        <v>-0.08721750429242066</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.06674256073726531</v>
+      </c>
+      <c r="F15">
+        <v>-0.005466305644421599</v>
+      </c>
+      <c r="G15">
+        <v>0.03251508027390956</v>
+      </c>
+      <c r="H15">
+        <v>-0.05595276514935711</v>
+      </c>
+      <c r="I15">
+        <v>0.01266150886036741</v>
+      </c>
+      <c r="J15">
+        <v>-0.04684873641368049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>-0.006552442280165121</v>
+        <v>-0.01047456422989761</v>
       </c>
       <c r="C16">
-        <v>0.05772209241009778</v>
+        <v>0.0670660140223511</v>
       </c>
       <c r="D16">
-        <v>-0.02267659078336298</v>
+        <v>-0.008151084766969833</v>
       </c>
       <c r="E16">
-        <v>-0.02122713606710655</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.01552312461875447</v>
+      </c>
+      <c r="F16">
+        <v>0.002398255809037758</v>
+      </c>
+      <c r="G16">
+        <v>0.03068961530476858</v>
+      </c>
+      <c r="H16">
+        <v>-0.03035965773407811</v>
+      </c>
+      <c r="I16">
+        <v>-0.008386301848280995</v>
+      </c>
+      <c r="J16">
+        <v>-0.005469063062539773</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1238,25 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1270,25 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1302,249 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>-0.0004856870785259026</v>
+        <v>-0.006235392609183212</v>
       </c>
       <c r="C20">
-        <v>0.06794957094722961</v>
+        <v>0.08386905856404299</v>
       </c>
       <c r="D20">
-        <v>-0.05510494226813614</v>
+        <v>0.001011140385386865</v>
       </c>
       <c r="E20">
-        <v>-0.04444078520630491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.04551257267733998</v>
+      </c>
+      <c r="F20">
+        <v>-0.01413538191119959</v>
+      </c>
+      <c r="G20">
+        <v>0.07035398421422699</v>
+      </c>
+      <c r="H20">
+        <v>-0.05787507717998153</v>
+      </c>
+      <c r="I20">
+        <v>0.006964708852126948</v>
+      </c>
+      <c r="J20">
+        <v>0.008492578256575489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>-0.003352077201043129</v>
+        <v>-0.008465277636722088</v>
       </c>
       <c r="C21">
-        <v>0.0851886593042889</v>
+        <v>0.08154840823838772</v>
       </c>
       <c r="D21">
-        <v>-0.09325990857765774</v>
+        <v>-0.002953053121597177</v>
       </c>
       <c r="E21">
-        <v>-0.06645830677859228</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.09550661235678384</v>
+      </c>
+      <c r="F21">
+        <v>0.07297348791709624</v>
+      </c>
+      <c r="G21">
+        <v>0.00947483069302347</v>
+      </c>
+      <c r="H21">
+        <v>-0.1615426956575008</v>
+      </c>
+      <c r="I21">
+        <v>-0.04497351709373611</v>
+      </c>
+      <c r="J21">
+        <v>-0.0273612279861253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.01268813129080249</v>
+        <v>0.01574207499844336</v>
       </c>
       <c r="C22">
-        <v>0.1275185819792647</v>
+        <v>0.1416237972041537</v>
       </c>
       <c r="D22">
-        <v>-0.252122920383042</v>
+        <v>0.03397100832382478</v>
       </c>
       <c r="E22">
-        <v>-0.1851275321471479</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.3633510219079626</v>
+      </c>
+      <c r="F22">
+        <v>-0.1486644020116189</v>
+      </c>
+      <c r="G22">
+        <v>-0.2533470728313555</v>
+      </c>
+      <c r="H22">
+        <v>0.3967255707016524</v>
+      </c>
+      <c r="I22">
+        <v>-0.04966609587592451</v>
+      </c>
+      <c r="J22">
+        <v>-0.20993432039304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.01316419309768514</v>
+        <v>0.01220844648167509</v>
       </c>
       <c r="C23">
-        <v>0.1291281993682801</v>
+        <v>0.1460629644439556</v>
       </c>
       <c r="D23">
-        <v>-0.2505537719716099</v>
+        <v>0.03639495023969206</v>
       </c>
       <c r="E23">
-        <v>-0.1834681746953168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.3555243366781335</v>
+      </c>
+      <c r="F23">
+        <v>-0.1419736947384825</v>
+      </c>
+      <c r="G23">
+        <v>-0.2456978978063061</v>
+      </c>
+      <c r="H23">
+        <v>0.3713374488325857</v>
+      </c>
+      <c r="I23">
+        <v>-0.05263808362202689</v>
+      </c>
+      <c r="J23">
+        <v>-0.1990977820192508</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>-4.189233686019613e-05</v>
+        <v>-0.01088155702133936</v>
       </c>
       <c r="C24">
-        <v>0.07419262691955086</v>
+        <v>0.0772339408075159</v>
       </c>
       <c r="D24">
-        <v>-0.01557444729865009</v>
+        <v>-0.02281496107057561</v>
       </c>
       <c r="E24">
-        <v>-0.03926864092011501</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02635311468471356</v>
+      </c>
+      <c r="F24">
+        <v>-0.002684132127639031</v>
+      </c>
+      <c r="G24">
+        <v>0.03470508341171483</v>
+      </c>
+      <c r="H24">
+        <v>-0.04252865149692718</v>
+      </c>
+      <c r="I24">
+        <v>-0.002645994586338002</v>
+      </c>
+      <c r="J24">
+        <v>-0.006346635484076313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>-0.007247250891032397</v>
+        <v>-0.01690868843584141</v>
       </c>
       <c r="C25">
-        <v>0.07081361133545801</v>
+        <v>0.07544569800750618</v>
       </c>
       <c r="D25">
-        <v>-0.01894646927449371</v>
+        <v>-0.01361312224788639</v>
       </c>
       <c r="E25">
-        <v>-0.01629511174907254</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.0188381096410433</v>
+      </c>
+      <c r="F25">
+        <v>-0.005323208629590308</v>
+      </c>
+      <c r="G25">
+        <v>0.02984750965188176</v>
+      </c>
+      <c r="H25">
+        <v>-0.03292694591984062</v>
+      </c>
+      <c r="I25">
+        <v>-0.01746682613892927</v>
+      </c>
+      <c r="J25">
+        <v>-0.0305360767957434</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>-0.002867718530125691</v>
+        <v>-0.01689323852587369</v>
       </c>
       <c r="C26">
-        <v>0.05178639453642414</v>
+        <v>0.06256361940280313</v>
       </c>
       <c r="D26">
-        <v>-0.0250692080078691</v>
+        <v>-0.04279866496250226</v>
       </c>
       <c r="E26">
-        <v>-0.06110195519594083</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04711368567832969</v>
+      </c>
+      <c r="F26">
+        <v>0.005762843560302579</v>
+      </c>
+      <c r="G26">
+        <v>0.02714951561322173</v>
+      </c>
+      <c r="H26">
+        <v>-0.1207433796343666</v>
+      </c>
+      <c r="I26">
+        <v>-0.01288829603074575</v>
+      </c>
+      <c r="J26">
+        <v>0.07443825381943128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1558,313 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>-0.3280460565886658</v>
+        <v>-0.3144698092173652</v>
       </c>
       <c r="C28">
-        <v>-0.09113542903814384</v>
+        <v>-0.1019303700053585</v>
       </c>
       <c r="D28">
-        <v>-0.02180581894703935</v>
+        <v>0.01631551211891747</v>
       </c>
       <c r="E28">
-        <v>0.06200314639162968</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.01788525100174495</v>
+      </c>
+      <c r="F28">
+        <v>-0.05372808246575694</v>
+      </c>
+      <c r="G28">
+        <v>-0.06646728086656306</v>
+      </c>
+      <c r="H28">
+        <v>-0.07858899896343985</v>
+      </c>
+      <c r="I28">
+        <v>-0.1712831548431656</v>
+      </c>
+      <c r="J28">
+        <v>0.04839675695676635</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.003046272312793402</v>
+        <v>-0.005114928648467496</v>
       </c>
       <c r="C29">
-        <v>0.06029131883567049</v>
+        <v>0.08269294223867532</v>
       </c>
       <c r="D29">
-        <v>-0.04739088337664188</v>
+        <v>-0.0200039313942262</v>
       </c>
       <c r="E29">
-        <v>-0.08894003988390793</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.13194723201693</v>
+      </c>
+      <c r="F29">
+        <v>0.05810562375694193</v>
+      </c>
+      <c r="G29">
+        <v>0.1430055849927268</v>
+      </c>
+      <c r="H29">
+        <v>-0.2412595940406307</v>
+      </c>
+      <c r="I29">
+        <v>0.05416077075300389</v>
+      </c>
+      <c r="J29">
+        <v>-0.266171673518241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>-0.01611015620707617</v>
+        <v>-0.01868155739807555</v>
       </c>
       <c r="C30">
-        <v>0.1698265476122691</v>
+        <v>0.1554440276282361</v>
       </c>
       <c r="D30">
-        <v>-0.0561583492316895</v>
+        <v>-0.02887688887435013</v>
       </c>
       <c r="E30">
-        <v>-0.08471725145535897</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.07790709338252264</v>
+      </c>
+      <c r="F30">
+        <v>-0.02590313884069407</v>
+      </c>
+      <c r="G30">
+        <v>-0.01712967986765696</v>
+      </c>
+      <c r="H30">
+        <v>-0.02724428561596879</v>
+      </c>
+      <c r="I30">
+        <v>0.01810699874593935</v>
+      </c>
+      <c r="J30">
+        <v>0.08315581561721441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.01284018323881438</v>
+        <v>-0.003597008180479143</v>
       </c>
       <c r="C31">
-        <v>0.09989654911900588</v>
+        <v>0.09977795065120831</v>
       </c>
       <c r="D31">
-        <v>0.02978455266686141</v>
+        <v>-0.03039257407477543</v>
       </c>
       <c r="E31">
-        <v>-0.002979297366138965</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01102656770492313</v>
+      </c>
+      <c r="F31">
+        <v>-0.001421045952653794</v>
+      </c>
+      <c r="G31">
+        <v>-0.02846141501468456</v>
+      </c>
+      <c r="H31">
+        <v>-0.05625161164483738</v>
+      </c>
+      <c r="I31">
+        <v>-0.03775107311476231</v>
+      </c>
+      <c r="J31">
+        <v>-0.04814112119527748</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>-0.01913627558936995</v>
+        <v>-0.020559511142857</v>
       </c>
       <c r="C32">
-        <v>0.073556704557267</v>
+        <v>0.06882829811286274</v>
       </c>
       <c r="D32">
-        <v>-0.1192789402276176</v>
+        <v>0.01362240782108591</v>
       </c>
       <c r="E32">
-        <v>-0.08071755940262543</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.1333811430339826</v>
+      </c>
+      <c r="F32">
+        <v>0.0261616816117514</v>
+      </c>
+      <c r="G32">
+        <v>0.004725066558592543</v>
+      </c>
+      <c r="H32">
+        <v>-0.1090034629427489</v>
+      </c>
+      <c r="I32">
+        <v>-0.2204040687435898</v>
+      </c>
+      <c r="J32">
+        <v>0.0350373452259641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>7.606293040041336e-05</v>
+        <v>-0.009101470641265194</v>
       </c>
       <c r="C33">
-        <v>0.08882641323308132</v>
+        <v>0.1097078112935472</v>
       </c>
       <c r="D33">
-        <v>-0.03097715764174916</v>
+        <v>-0.01196308066532481</v>
       </c>
       <c r="E33">
-        <v>-0.05970196419866703</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.05887593178006263</v>
+      </c>
+      <c r="F33">
+        <v>-0.001646621209639461</v>
+      </c>
+      <c r="G33">
+        <v>0.03801918639996962</v>
+      </c>
+      <c r="H33">
+        <v>-0.05235356443791171</v>
+      </c>
+      <c r="I33">
+        <v>-0.02585821927426218</v>
+      </c>
+      <c r="J33">
+        <v>-0.009891135947909961</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.001434808525000374</v>
+        <v>-0.01121558609079024</v>
       </c>
       <c r="C34">
-        <v>0.05603713460671305</v>
+        <v>0.05603150322717858</v>
       </c>
       <c r="D34">
-        <v>-0.009819333545468833</v>
+        <v>-0.0118601970558636</v>
       </c>
       <c r="E34">
-        <v>-0.0205310121079875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.01160119077733411</v>
+      </c>
+      <c r="F34">
+        <v>0.01001801605611316</v>
+      </c>
+      <c r="G34">
+        <v>0.02774223366565517</v>
+      </c>
+      <c r="H34">
+        <v>-0.005520281148693387</v>
+      </c>
+      <c r="I34">
+        <v>-0.02237859463446805</v>
+      </c>
+      <c r="J34">
+        <v>-0.0103572383930388</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>-0.001218704701720636</v>
+        <v>-0.005947483590369157</v>
       </c>
       <c r="C35">
-        <v>0.009071272683936827</v>
+        <v>0.03649761692574369</v>
       </c>
       <c r="D35">
-        <v>-0.01032337171878324</v>
+        <v>-0.004855491554961764</v>
       </c>
       <c r="E35">
-        <v>-0.008019653478030185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.0443496762751232</v>
+      </c>
+      <c r="F35">
+        <v>0.0138087064228493</v>
+      </c>
+      <c r="G35">
+        <v>0.05916083219849128</v>
+      </c>
+      <c r="H35">
+        <v>-0.1199987673379907</v>
+      </c>
+      <c r="I35">
+        <v>-0.003049323567898899</v>
+      </c>
+      <c r="J35">
+        <v>-0.1878966580402216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>-0.001607927050426212</v>
+        <v>-0.008769096569475937</v>
       </c>
       <c r="C36">
-        <v>0.04250174913246808</v>
+        <v>0.04913242049607217</v>
       </c>
       <c r="D36">
-        <v>-0.02165422626696833</v>
+        <v>-0.0296791502366674</v>
       </c>
       <c r="E36">
-        <v>-0.06722438657858812</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.05185565716236999</v>
+      </c>
+      <c r="F36">
+        <v>0.002169538455699809</v>
+      </c>
+      <c r="G36">
+        <v>0.02185863419525534</v>
+      </c>
+      <c r="H36">
+        <v>-0.06608197143387036</v>
+      </c>
+      <c r="I36">
+        <v>-0.004212535521725847</v>
+      </c>
+      <c r="J36">
+        <v>0.02246751984280972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1878,153 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>-0.01057972040070877</v>
+        <v>-0.008142151700271338</v>
       </c>
       <c r="C38">
-        <v>0.04615227021533055</v>
+        <v>0.06235914458923569</v>
       </c>
       <c r="D38">
-        <v>-0.02909768250826176</v>
+        <v>-0.01816374632998335</v>
       </c>
       <c r="E38">
-        <v>-0.05583423826017993</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.05622834059612147</v>
+      </c>
+      <c r="F38">
+        <v>-0.04892761725801478</v>
+      </c>
+      <c r="G38">
+        <v>0.01744434331369875</v>
+      </c>
+      <c r="H38">
+        <v>-0.05460774131818905</v>
+      </c>
+      <c r="I38">
+        <v>-0.03284360801675019</v>
+      </c>
+      <c r="J38">
+        <v>-0.03934496790797417</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.001009571852073567</v>
+        <v>-0.008280913841562468</v>
       </c>
       <c r="C39">
-        <v>0.1302869389305406</v>
+        <v>0.1310605285136056</v>
       </c>
       <c r="D39">
-        <v>-0.0417839254203051</v>
+        <v>-0.0316146377560204</v>
       </c>
       <c r="E39">
-        <v>-0.05938702337491176</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.03891553166372417</v>
+      </c>
+      <c r="F39">
+        <v>0.01842161532062403</v>
+      </c>
+      <c r="G39">
+        <v>0.05077728089383838</v>
+      </c>
+      <c r="H39">
+        <v>-0.04066355858518025</v>
+      </c>
+      <c r="I39">
+        <v>0.03393444410875801</v>
+      </c>
+      <c r="J39">
+        <v>0.01085827665005995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.001903456400617184</v>
+        <v>-0.01002093864203252</v>
       </c>
       <c r="C40">
-        <v>0.0236184448938812</v>
+        <v>0.05807722617541231</v>
       </c>
       <c r="D40">
-        <v>-0.05283240434150857</v>
+        <v>-0.005396431457272421</v>
       </c>
       <c r="E40">
-        <v>-0.1252535626655246</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.1262641846630166</v>
+      </c>
+      <c r="F40">
+        <v>0.02893968866778921</v>
+      </c>
+      <c r="G40">
+        <v>0.09872918101308127</v>
+      </c>
+      <c r="H40">
+        <v>0.01561052317769268</v>
+      </c>
+      <c r="I40">
+        <v>-0.02967695214126498</v>
+      </c>
+      <c r="J40">
+        <v>-0.1446818757249035</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>-0.008789920728051261</v>
+        <v>-0.01861208441592356</v>
       </c>
       <c r="C41">
-        <v>0.02252472855649339</v>
+        <v>0.04928908379443402</v>
       </c>
       <c r="D41">
-        <v>0.002402464209267402</v>
+        <v>-0.007252885693622339</v>
       </c>
       <c r="E41">
-        <v>0.005161996074602984</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.001722602000559767</v>
+      </c>
+      <c r="F41">
+        <v>-0.005623912169772522</v>
+      </c>
+      <c r="G41">
+        <v>0.01144271484700427</v>
+      </c>
+      <c r="H41">
+        <v>-0.03452557560303337</v>
+      </c>
+      <c r="I41">
+        <v>-0.04289533302477924</v>
+      </c>
+      <c r="J41">
+        <v>-0.06089956382032872</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2038,89 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.001824905256571856</v>
+        <v>-0.0110781831126197</v>
       </c>
       <c r="C43">
-        <v>0.01608527366465684</v>
+        <v>0.04214180140988612</v>
       </c>
       <c r="D43">
-        <v>-0.01524974140259658</v>
+        <v>-0.01604215450610105</v>
       </c>
       <c r="E43">
-        <v>-0.03007839625938888</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.02487563370140074</v>
+      </c>
+      <c r="F43">
+        <v>-0.01355166858840389</v>
+      </c>
+      <c r="G43">
+        <v>0.02890472178882756</v>
+      </c>
+      <c r="H43">
+        <v>-0.04669472147588078</v>
+      </c>
+      <c r="I43">
+        <v>-0.01531208961586274</v>
+      </c>
+      <c r="J43">
+        <v>-0.04484053039621095</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>-0.01229941692125395</v>
+        <v>-0.004859568108930881</v>
       </c>
       <c r="C44">
-        <v>0.07537865219394296</v>
+        <v>0.08512263890335382</v>
       </c>
       <c r="D44">
-        <v>-0.0681119415094837</v>
+        <v>-0.03229599660923769</v>
       </c>
       <c r="E44">
-        <v>-0.09851191094758772</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.1017484139403281</v>
+      </c>
+      <c r="F44">
+        <v>-0.007606659914026538</v>
+      </c>
+      <c r="G44">
+        <v>0.02373590807333615</v>
+      </c>
+      <c r="H44">
+        <v>-0.01864456377952791</v>
+      </c>
+      <c r="I44">
+        <v>0.04212901758911469</v>
+      </c>
+      <c r="J44">
+        <v>0.04571613563114803</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2134,217 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.01366264019645939</v>
+        <v>0.00356059967560316</v>
       </c>
       <c r="C46">
-        <v>0.06230366436797504</v>
+        <v>0.06833049585748041</v>
       </c>
       <c r="D46">
-        <v>-0.03605668249742026</v>
+        <v>-0.02199322789104437</v>
       </c>
       <c r="E46">
-        <v>-0.08798468858291868</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.06353216100474457</v>
+      </c>
+      <c r="F46">
+        <v>0.008198419497612986</v>
+      </c>
+      <c r="G46">
+        <v>0.07256408313889824</v>
+      </c>
+      <c r="H46">
+        <v>-0.1171435642776234</v>
+      </c>
+      <c r="I46">
+        <v>0.005124942362998089</v>
+      </c>
+      <c r="J46">
+        <v>-0.1104386737657019</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>-0.007216439447133185</v>
+        <v>-0.01905638706139937</v>
       </c>
       <c r="C47">
-        <v>0.1149135235072043</v>
+        <v>0.1008785575697293</v>
       </c>
       <c r="D47">
-        <v>0.02283404286275419</v>
+        <v>-0.02715316983652113</v>
       </c>
       <c r="E47">
-        <v>0.03401073387670621</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01456187108076901</v>
+      </c>
+      <c r="F47">
+        <v>-0.005146089791595073</v>
+      </c>
+      <c r="G47">
+        <v>-0.006494463599576535</v>
+      </c>
+      <c r="H47">
+        <v>-0.08594823165873092</v>
+      </c>
+      <c r="I47">
+        <v>-0.03849127387449711</v>
+      </c>
+      <c r="J47">
+        <v>-0.02146877865974448</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>-0.008040930423293069</v>
+        <v>-0.01512397964145518</v>
       </c>
       <c r="C48">
-        <v>0.04577151544339271</v>
+        <v>0.0550020682660686</v>
       </c>
       <c r="D48">
-        <v>-0.008180461989507833</v>
+        <v>-0.03818979511340171</v>
       </c>
       <c r="E48">
-        <v>-0.07211779196189502</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.05007382380507003</v>
+      </c>
+      <c r="F48">
+        <v>-0.0009230196421796004</v>
+      </c>
+      <c r="G48">
+        <v>0.02592732766191622</v>
+      </c>
+      <c r="H48">
+        <v>-0.11165401389019</v>
+      </c>
+      <c r="I48">
+        <v>-1.41611153862455e-05</v>
+      </c>
+      <c r="J48">
+        <v>0.07019418869405156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.004778163956386305</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.0093407070716205</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.00908492510427693</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.005283990106579498</v>
+      </c>
+      <c r="F49">
+        <v>0.008434219108031247</v>
+      </c>
+      <c r="G49">
+        <v>0.01668882064795053</v>
+      </c>
+      <c r="H49">
+        <v>0.01413145766217796</v>
+      </c>
+      <c r="I49">
+        <v>0.002149112914357318</v>
+      </c>
+      <c r="J49">
+        <v>0.007529904916867373</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>-0.0053836980305306</v>
+        <v>-0.01189657703977882</v>
       </c>
       <c r="C50">
-        <v>0.09195452194577675</v>
+        <v>0.09015897336767409</v>
       </c>
       <c r="D50">
-        <v>0.008050341934401725</v>
+        <v>-0.01204049500954306</v>
       </c>
       <c r="E50">
-        <v>-0.00252111896785877</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0009076851549380241</v>
+      </c>
+      <c r="F50">
+        <v>-0.01799633889970875</v>
+      </c>
+      <c r="G50">
+        <v>-0.0228553781429965</v>
+      </c>
+      <c r="H50">
+        <v>-0.06545466243035039</v>
+      </c>
+      <c r="I50">
+        <v>-0.06180560591506132</v>
+      </c>
+      <c r="J50">
+        <v>-0.0368223982380399</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>-0.005189457003934618</v>
+        <v>0.004626776024699059</v>
       </c>
       <c r="C51">
-        <v>0.05289547753396438</v>
+        <v>0.03789572986397575</v>
       </c>
       <c r="D51">
-        <v>-0.07155874662882697</v>
+        <v>-0.007910816643322041</v>
       </c>
       <c r="E51">
-        <v>-0.07152939626503672</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.05835871905180264</v>
+      </c>
+      <c r="F51">
+        <v>0.004011652984441955</v>
+      </c>
+      <c r="G51">
+        <v>0.01352990057066566</v>
+      </c>
+      <c r="H51">
+        <v>-0.08665604117326729</v>
+      </c>
+      <c r="I51">
+        <v>0.0319639696129147</v>
+      </c>
+      <c r="J51">
+        <v>0.1233001976795704</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2358,153 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>-0.03756761745833665</v>
+        <v>-0.04950058536092255</v>
       </c>
       <c r="C53">
-        <v>0.1642634592643054</v>
+        <v>0.149765721574877</v>
       </c>
       <c r="D53">
-        <v>0.06455892550362212</v>
+        <v>-0.04512368392014166</v>
       </c>
       <c r="E53">
-        <v>0.05588448893889242</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.09285115791722288</v>
+      </c>
+      <c r="F53">
+        <v>-0.007294734707153902</v>
+      </c>
+      <c r="G53">
+        <v>-0.05015100637299906</v>
+      </c>
+      <c r="H53">
+        <v>-0.01011171704540336</v>
+      </c>
+      <c r="I53">
+        <v>-0.04741385411243675</v>
+      </c>
+      <c r="J53">
+        <v>-0.01372042699504402</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>-0.002208529992514453</v>
+        <v>-0.01247999582560782</v>
       </c>
       <c r="C54">
-        <v>0.05726570715239518</v>
+        <v>0.07062128980744632</v>
       </c>
       <c r="D54">
-        <v>-0.04430557482605157</v>
+        <v>0.007980430715834624</v>
       </c>
       <c r="E54">
-        <v>-0.01687464476802819</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.02949227733575218</v>
+      </c>
+      <c r="F54">
+        <v>-0.004804578862953037</v>
+      </c>
+      <c r="G54">
+        <v>0.0159939757160236</v>
+      </c>
+      <c r="H54">
+        <v>-0.08183245718121088</v>
+      </c>
+      <c r="I54">
+        <v>0.01712386063964186</v>
+      </c>
+      <c r="J54">
+        <v>-0.04634476716808146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>-0.02327839424127386</v>
+        <v>-0.02791526800023962</v>
       </c>
       <c r="C55">
-        <v>0.1251266940415621</v>
+        <v>0.1079201455918724</v>
       </c>
       <c r="D55">
-        <v>0.05756811207167436</v>
+        <v>-0.04775980812431554</v>
       </c>
       <c r="E55">
-        <v>0.01600003107663017</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.06236412707797943</v>
+      </c>
+      <c r="F55">
+        <v>0.00840991262211078</v>
+      </c>
+      <c r="G55">
+        <v>-0.02517510315625749</v>
+      </c>
+      <c r="H55">
+        <v>-0.01914008178296375</v>
+      </c>
+      <c r="I55">
+        <v>-0.006870807133552472</v>
+      </c>
+      <c r="J55">
+        <v>-0.00078503730500717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>-0.04345737882529659</v>
+        <v>-0.04358606261450918</v>
       </c>
       <c r="C56">
-        <v>0.1988428315201134</v>
+        <v>0.1790288689171823</v>
       </c>
       <c r="D56">
-        <v>0.08824794747117866</v>
+        <v>-0.0692174822046879</v>
       </c>
       <c r="E56">
-        <v>0.08260006774904417</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.1285566373952601</v>
+      </c>
+      <c r="F56">
+        <v>-0.002573196028461527</v>
+      </c>
+      <c r="G56">
+        <v>-0.102662799804492</v>
+      </c>
+      <c r="H56">
+        <v>-0.006347896902743913</v>
+      </c>
+      <c r="I56">
+        <v>-0.04245179261988688</v>
+      </c>
+      <c r="J56">
+        <v>0.03253502365471161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,214 +2518,409 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>-0.01443611067959523</v>
+        <v>-0.01015942701118145</v>
       </c>
       <c r="C58">
-        <v>0.1772914532968611</v>
+        <v>0.1688814592954772</v>
       </c>
       <c r="D58">
-        <v>-0.249796966513409</v>
+        <v>0.02116759784377821</v>
       </c>
       <c r="E58">
-        <v>-0.1623845207877479</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.2809853204211296</v>
+      </c>
+      <c r="F58">
+        <v>-0.08636666153224465</v>
+      </c>
+      <c r="G58">
+        <v>-0.1846572385512369</v>
+      </c>
+      <c r="H58">
+        <v>0.01442171136739922</v>
+      </c>
+      <c r="I58">
+        <v>0.0781634287111608</v>
+      </c>
+      <c r="J58">
+        <v>0.3076704395403819</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>-0.2583608251857311</v>
+        <v>-0.2753203428606634</v>
       </c>
       <c r="C59">
-        <v>-0.01201692675097176</v>
+        <v>-0.03144897298600491</v>
       </c>
       <c r="D59">
-        <v>-0.06152389268560403</v>
+        <v>0.01104591190086369</v>
       </c>
       <c r="E59">
-        <v>-0.01122069071885366</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04891050479697704</v>
+      </c>
+      <c r="F59">
+        <v>0.01443677634364273</v>
+      </c>
+      <c r="G59">
+        <v>-0.01340325325749377</v>
+      </c>
+      <c r="H59">
+        <v>0.02111931185204357</v>
+      </c>
+      <c r="I59">
+        <v>-0.09762699413814722</v>
+      </c>
+      <c r="J59">
+        <v>0.01150821856502015</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>-0.1183295389665622</v>
+        <v>-0.1467574303958247</v>
       </c>
       <c r="C60">
-        <v>0.1635857173430019</v>
+        <v>0.166199015918062</v>
       </c>
       <c r="D60">
-        <v>0.06611400388373968</v>
+        <v>-0.03474689917954357</v>
       </c>
       <c r="E60">
-        <v>0.02187867038177066</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.05840685009956788</v>
+      </c>
+      <c r="F60">
+        <v>0.1223363630028329</v>
+      </c>
+      <c r="G60">
+        <v>0.2387144459986069</v>
+      </c>
+      <c r="H60">
+        <v>0.2790721629508769</v>
+      </c>
+      <c r="I60">
+        <v>0.06788473082019519</v>
+      </c>
+      <c r="J60">
+        <v>0.0008841045017268777</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>-0.004889402072834831</v>
+        <v>-0.01442857716344255</v>
       </c>
       <c r="C61">
-        <v>0.09454472366438697</v>
+        <v>0.1068494649010304</v>
       </c>
       <c r="D61">
-        <v>-0.005789252443263468</v>
+        <v>-0.03083546865300484</v>
       </c>
       <c r="E61">
-        <v>-0.03527280868347463</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01694930044126237</v>
+      </c>
+      <c r="F61">
+        <v>0.007836785677932572</v>
+      </c>
+      <c r="G61">
+        <v>0.05208226249685517</v>
+      </c>
+      <c r="H61">
+        <v>-0.04607624688146249</v>
+      </c>
+      <c r="I61">
+        <v>0.003715767994156419</v>
+      </c>
+      <c r="J61">
+        <v>-0.03200508644808044</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.0006143122757506198</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.004763915757758287</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.005126005682688171</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>-0.01193326664595828</v>
+      </c>
+      <c r="F62">
+        <v>0.006462785347918503</v>
+      </c>
+      <c r="G62">
+        <v>0.0168079941028265</v>
+      </c>
+      <c r="H62">
+        <v>-0.01307794929250413</v>
+      </c>
+      <c r="I62">
+        <v>0.005920921990880778</v>
+      </c>
+      <c r="J62">
+        <v>-0.005233672183879092</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.007747280779914296</v>
+        <v>-0.01580823177824931</v>
       </c>
       <c r="C63">
-        <v>0.0595737448731151</v>
+        <v>0.07422338329441232</v>
       </c>
       <c r="D63">
-        <v>-0.02190657996698456</v>
+        <v>-0.03217211114640695</v>
       </c>
       <c r="E63">
-        <v>-0.03499729153042121</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.03222699843740057</v>
+      </c>
+      <c r="F63">
+        <v>0.007478536035872834</v>
+      </c>
+      <c r="G63">
+        <v>0.03858115828247904</v>
+      </c>
+      <c r="H63">
+        <v>-0.06818137929023289</v>
+      </c>
+      <c r="I63">
+        <v>-0.022291198102536</v>
+      </c>
+      <c r="J63">
+        <v>-0.01551157122014096</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>-0.005912373032079419</v>
+        <v>-0.01283271208242469</v>
       </c>
       <c r="C64">
-        <v>0.1243241937378956</v>
+        <v>0.1068349402023599</v>
       </c>
       <c r="D64">
-        <v>0.04185929264316178</v>
+        <v>-0.02146122647835643</v>
       </c>
       <c r="E64">
-        <v>-0.02105898389581221</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.001205932245439186</v>
+      </c>
+      <c r="F64">
+        <v>-0.02701137082376554</v>
+      </c>
+      <c r="G64">
+        <v>0.02041661242219851</v>
+      </c>
+      <c r="H64">
+        <v>-0.009700255082361513</v>
+      </c>
+      <c r="I64">
+        <v>0.0004044959091452952</v>
+      </c>
+      <c r="J64">
+        <v>-0.03019109319266371</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>-0.0173038177098819</v>
+        <v>-0.02617934925661262</v>
       </c>
       <c r="C65">
-        <v>0.07661674539898328</v>
+        <v>0.09043577788758642</v>
       </c>
       <c r="D65">
-        <v>-0.03854347351873878</v>
+        <v>0.001384414409117845</v>
       </c>
       <c r="E65">
-        <v>-0.06088095761402348</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.07567276742043709</v>
+      </c>
+      <c r="F65">
+        <v>-0.005411822992292378</v>
+      </c>
+      <c r="G65">
+        <v>0.0884783311905773</v>
+      </c>
+      <c r="H65">
+        <v>0.01477328885294266</v>
+      </c>
+      <c r="I65">
+        <v>0.05429024798018207</v>
+      </c>
+      <c r="J65">
+        <v>0.002124564965339562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.001337126717816507</v>
+        <v>-0.006588734919797142</v>
       </c>
       <c r="C66">
-        <v>0.1497375880001352</v>
+        <v>0.1587050429533791</v>
       </c>
       <c r="D66">
-        <v>-0.07439727949377359</v>
+        <v>-0.01365966263667884</v>
       </c>
       <c r="E66">
-        <v>-0.08219412669993982</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.0646163378638429</v>
+      </c>
+      <c r="F66">
+        <v>0.005038131369547704</v>
+      </c>
+      <c r="G66">
+        <v>0.03025531178783451</v>
+      </c>
+      <c r="H66">
+        <v>-0.03887142061964353</v>
+      </c>
+      <c r="I66">
+        <v>0.02769863160940915</v>
+      </c>
+      <c r="J66">
+        <v>0.009185205185278456</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>-0.01587050550270902</v>
+        <v>-0.01731713878474968</v>
       </c>
       <c r="C67">
-        <v>0.04384170150967246</v>
+        <v>0.05821666976336429</v>
       </c>
       <c r="D67">
-        <v>0.02096737736172383</v>
+        <v>-0.03003588022219808</v>
       </c>
       <c r="E67">
-        <v>-0.02856955173969467</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01577997164626608</v>
+      </c>
+      <c r="F67">
+        <v>-0.03475159946574516</v>
+      </c>
+      <c r="G67">
+        <v>0.04309014544694106</v>
+      </c>
+      <c r="H67">
+        <v>-0.03529970055583322</v>
+      </c>
+      <c r="I67">
+        <v>-0.02660163497317415</v>
+      </c>
+      <c r="J67">
+        <v>-0.05752357225221117</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>-0.2632764748865329</v>
+        <v>-0.2877418035301767</v>
       </c>
       <c r="C68">
-        <v>-0.03140323750118761</v>
+        <v>-0.04018410260284405</v>
       </c>
       <c r="D68">
-        <v>-0.05684297828235212</v>
+        <v>0.03418069308611176</v>
       </c>
       <c r="E68">
-        <v>-0.01284802032085848</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.05813990712656986</v>
+      </c>
+      <c r="F68">
+        <v>-0.01718390972788048</v>
+      </c>
+      <c r="G68">
+        <v>-0.04724303866456595</v>
+      </c>
+      <c r="H68">
+        <v>0.01898271125421561</v>
+      </c>
+      <c r="I68">
+        <v>-0.08172920363660865</v>
+      </c>
+      <c r="J68">
+        <v>-0.01069458356766704</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>-0.01281660310542023</v>
+        <v>-0.009095588540096216</v>
       </c>
       <c r="C69">
-        <v>0.106649139225</v>
+        <v>0.08094910300330582</v>
       </c>
       <c r="D69">
-        <v>0.04369134790612002</v>
+        <v>-0.02287332317240529</v>
       </c>
       <c r="E69">
-        <v>-0.01528566042389094</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01230837783611803</v>
+      </c>
+      <c r="F69">
+        <v>-0.008887102080403676</v>
+      </c>
+      <c r="G69">
+        <v>0.002082913258220493</v>
+      </c>
+      <c r="H69">
+        <v>-0.06166977097832829</v>
+      </c>
+      <c r="I69">
+        <v>-0.03294350027479336</v>
+      </c>
+      <c r="J69">
+        <v>-0.005688687445658574</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2934,825 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>-0.2739615993893743</v>
+        <v>-0.2740804637755391</v>
       </c>
       <c r="C71">
-        <v>-0.04397322910139334</v>
+        <v>-0.06191450597065423</v>
       </c>
       <c r="D71">
-        <v>-0.05343753218784007</v>
+        <v>0.0184710268454316</v>
       </c>
       <c r="E71">
-        <v>0.02303082444223716</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.04073231391739924</v>
+      </c>
+      <c r="F71">
+        <v>-0.037262140478642</v>
+      </c>
+      <c r="G71">
+        <v>-0.001499095853948674</v>
+      </c>
+      <c r="H71">
+        <v>-0.05460772197848202</v>
+      </c>
+      <c r="I71">
+        <v>-0.1074401092382264</v>
+      </c>
+      <c r="J71">
+        <v>0.09022191326776473</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>-0.05569438443238362</v>
+        <v>-0.05865641251362456</v>
       </c>
       <c r="C72">
-        <v>0.1866832992020099</v>
+        <v>0.1604648212738649</v>
       </c>
       <c r="D72">
-        <v>0.03148470920934592</v>
+        <v>-0.01999352123429348</v>
       </c>
       <c r="E72">
-        <v>-0.06438529210733596</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01887245870303293</v>
+      </c>
+      <c r="F72">
+        <v>0.01816586509736134</v>
+      </c>
+      <c r="G72">
+        <v>0.02433567601205342</v>
+      </c>
+      <c r="H72">
+        <v>0.04263215610684171</v>
+      </c>
+      <c r="I72">
+        <v>0.08269190689434308</v>
+      </c>
+      <c r="J72">
+        <v>-0.04784191401313381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>-0.09496112941728209</v>
+        <v>-0.1462473651336513</v>
       </c>
       <c r="C73">
-        <v>0.1633634817495971</v>
+        <v>0.2058721600396878</v>
       </c>
       <c r="D73">
-        <v>0.09337742272847949</v>
+        <v>-0.05262667142543529</v>
       </c>
       <c r="E73">
-        <v>0.01616432561771676</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.0992896547369614</v>
+      </c>
+      <c r="F73">
+        <v>0.1450687135893773</v>
+      </c>
+      <c r="G73">
+        <v>0.4065560126441705</v>
+      </c>
+      <c r="H73">
+        <v>0.3087017907022103</v>
+      </c>
+      <c r="I73">
+        <v>-0.01350385186525914</v>
+      </c>
+      <c r="J73">
+        <v>0.1072689845638727</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>-0.02665625695451931</v>
+        <v>-0.03616097470470576</v>
       </c>
       <c r="C74">
-        <v>0.1213267337762616</v>
+        <v>0.1161603176928824</v>
       </c>
       <c r="D74">
-        <v>0.09365311131409029</v>
+        <v>-0.04418931109037263</v>
       </c>
       <c r="E74">
-        <v>0.04772031454167744</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.07886703852332033</v>
+      </c>
+      <c r="F74">
+        <v>-0.005820801251000132</v>
+      </c>
+      <c r="G74">
+        <v>-0.03255699270205083</v>
+      </c>
+      <c r="H74">
+        <v>-0.02105657350077155</v>
+      </c>
+      <c r="I74">
+        <v>-0.01120863974959759</v>
+      </c>
+      <c r="J74">
+        <v>-0.005037329576747567</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>-0.09279184989276199</v>
+        <v>-0.06917915935954273</v>
       </c>
       <c r="C75">
-        <v>0.2196446175596614</v>
+        <v>0.1964330661821869</v>
       </c>
       <c r="D75">
-        <v>0.2075969704420356</v>
+        <v>-0.08857713791890139</v>
       </c>
       <c r="E75">
-        <v>0.1401442140906762</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.2308749687920744</v>
+      </c>
+      <c r="F75">
+        <v>-0.09376831846778073</v>
+      </c>
+      <c r="G75">
+        <v>-0.1376199236618937</v>
+      </c>
+      <c r="H75">
+        <v>0.002506467431713326</v>
+      </c>
+      <c r="I75">
+        <v>-0.0807056967039616</v>
+      </c>
+      <c r="J75">
+        <v>-0.04202199335007421</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>-0.03891826275543647</v>
+        <v>-0.03907446807573663</v>
       </c>
       <c r="C76">
-        <v>0.1518567928458977</v>
+        <v>0.14470768307912</v>
       </c>
       <c r="D76">
-        <v>0.1015321667686962</v>
+        <v>-0.07326824168939673</v>
       </c>
       <c r="E76">
-        <v>0.04657501428799739</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.1102548838946537</v>
+      </c>
+      <c r="F76">
+        <v>-0.001043267040793318</v>
+      </c>
+      <c r="G76">
+        <v>-0.02777992806284102</v>
+      </c>
+      <c r="H76">
+        <v>-0.02006719713541642</v>
+      </c>
+      <c r="I76">
+        <v>-0.02000493851329877</v>
+      </c>
+      <c r="J76">
+        <v>-0.01648467999483461</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>-0.02750626159959945</v>
+        <v>-0.0232844423860376</v>
       </c>
       <c r="C77">
-        <v>0.1598852455610336</v>
+        <v>0.2397027875187043</v>
       </c>
       <c r="D77">
-        <v>-0.6053007854536864</v>
+        <v>0.946880191661734</v>
       </c>
       <c r="E77">
-        <v>0.7051911486297125</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.1621325475086492</v>
+      </c>
+      <c r="F77">
+        <v>-0.02376869184129308</v>
+      </c>
+      <c r="G77">
+        <v>0.006032739666608125</v>
+      </c>
+      <c r="H77">
+        <v>-0.05133394392476055</v>
+      </c>
+      <c r="I77">
+        <v>0.01853592578958675</v>
+      </c>
+      <c r="J77">
+        <v>-0.00769804130866919</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>-0.02276572237104206</v>
+        <v>-0.02479125596961818</v>
       </c>
       <c r="C78">
-        <v>0.1515919746854929</v>
+        <v>0.1252624569108249</v>
       </c>
       <c r="D78">
-        <v>-0.06722660411836756</v>
+        <v>-0.05907644804721111</v>
       </c>
       <c r="E78">
-        <v>-0.0976232859664138</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.04510442286597774</v>
+      </c>
+      <c r="F78">
+        <v>0.007127418788058346</v>
+      </c>
+      <c r="G78">
+        <v>-0.0888448028909626</v>
+      </c>
+      <c r="H78">
+        <v>-0.1297356892802583</v>
+      </c>
+      <c r="I78">
+        <v>0.1748088929694334</v>
+      </c>
+      <c r="J78">
+        <v>0.4985440814272123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>-0.05249101767176845</v>
+        <v>-0.05602698856326391</v>
       </c>
       <c r="C79">
-        <v>0.254608803146725</v>
+        <v>0.1916601519202611</v>
       </c>
       <c r="D79">
-        <v>0.1859440642227989</v>
+        <v>-0.07111895570895654</v>
       </c>
       <c r="E79">
-        <v>0.1169976027959682</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1892238686918313</v>
+      </c>
+      <c r="F79">
+        <v>-0.02510448097389347</v>
+      </c>
+      <c r="G79">
+        <v>-0.190985985216639</v>
+      </c>
+      <c r="H79">
+        <v>-0.05611000273778748</v>
+      </c>
+      <c r="I79">
+        <v>-0.08123889919749486</v>
+      </c>
+      <c r="J79">
+        <v>0.01362514273476713</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.0148144927645779</v>
+        <v>-0.006660159010894456</v>
       </c>
       <c r="C80">
-        <v>0.06922597650259607</v>
+        <v>0.06367257381644943</v>
       </c>
       <c r="D80">
-        <v>0.02366211609370592</v>
+        <v>-0.04011503279028857</v>
       </c>
       <c r="E80">
-        <v>-0.02308931107514523</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.03339375355517144</v>
+      </c>
+      <c r="F80">
+        <v>0.07341481284899623</v>
+      </c>
+      <c r="G80">
+        <v>0.03980566752959253</v>
+      </c>
+      <c r="H80">
+        <v>0.04636603464893059</v>
+      </c>
+      <c r="I80">
+        <v>-0.06344958214097293</v>
+      </c>
+      <c r="J80">
+        <v>-0.06787400296950602</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>-0.03525549644815016</v>
+        <v>-0.02297762602608458</v>
       </c>
       <c r="C81">
-        <v>0.1350552984035186</v>
+        <v>0.1218416151005084</v>
       </c>
       <c r="D81">
-        <v>0.1333470936855796</v>
+        <v>-0.0480766029334427</v>
       </c>
       <c r="E81">
-        <v>0.09942385440632</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.1075806014599517</v>
+      </c>
+      <c r="F81">
+        <v>-0.02255645026628807</v>
+      </c>
+      <c r="G81">
+        <v>-0.09232012500159088</v>
+      </c>
+      <c r="H81">
+        <v>-0.07471422774078885</v>
+      </c>
+      <c r="I81">
+        <v>-0.09284321643187787</v>
+      </c>
+      <c r="J81">
+        <v>-0.02599487965196751</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>-0.05712046748847806</v>
+        <v>-0.04973466579031143</v>
       </c>
       <c r="C82">
-        <v>0.1608723172219754</v>
+        <v>0.1353064310067844</v>
       </c>
       <c r="D82">
-        <v>0.137753273709316</v>
+        <v>-0.07144741684611161</v>
       </c>
       <c r="E82">
-        <v>0.06801166814144537</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.1237696320466415</v>
+      </c>
+      <c r="F82">
+        <v>-0.006786709351156975</v>
+      </c>
+      <c r="G82">
+        <v>-0.06102930258439655</v>
+      </c>
+      <c r="H82">
+        <v>-0.03792672469985048</v>
+      </c>
+      <c r="I82">
+        <v>-0.05764312693627201</v>
+      </c>
+      <c r="J82">
+        <v>-0.009647572496034811</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>-0.01118509596148095</v>
+        <v>-0.004384153633846161</v>
       </c>
       <c r="C83">
-        <v>0.06156969347460946</v>
+        <v>0.01160085546397496</v>
       </c>
       <c r="D83">
-        <v>-0.0558507809947996</v>
+        <v>0.04288763512707069</v>
       </c>
       <c r="E83">
-        <v>-0.01630467812544411</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.08204592469958698</v>
+      </c>
+      <c r="F83">
+        <v>0.8994896345400544</v>
+      </c>
+      <c r="G83">
+        <v>-0.3182589662157764</v>
+      </c>
+      <c r="H83">
+        <v>0.02799760073480769</v>
+      </c>
+      <c r="I83">
+        <v>-0.126391130335792</v>
+      </c>
+      <c r="J83">
+        <v>-0.006034144732923699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.003342654098742091</v>
+        <v>0.002135197912559481</v>
       </c>
       <c r="C84">
-        <v>0.03112330048686415</v>
+        <v>0.03846790672227279</v>
       </c>
       <c r="D84">
-        <v>-0.03402103347179309</v>
+        <v>-0.04357877749142891</v>
       </c>
       <c r="E84">
-        <v>-0.08148360988879318</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.07524634279078715</v>
+      </c>
+      <c r="F84">
+        <v>-0.05460766554148799</v>
+      </c>
+      <c r="G84">
+        <v>-0.0395433011632088</v>
+      </c>
+      <c r="H84">
+        <v>-0.05613380282375224</v>
+      </c>
+      <c r="I84">
+        <v>0.04988025471495695</v>
+      </c>
+      <c r="J84">
+        <v>-0.08327745348885772</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>-0.03737051984513889</v>
+        <v>-0.03105902750905749</v>
       </c>
       <c r="C85">
-        <v>0.1755086288542884</v>
+        <v>0.1422239078808706</v>
       </c>
       <c r="D85">
-        <v>0.147886388345987</v>
+        <v>-0.08377102571355073</v>
       </c>
       <c r="E85">
-        <v>0.0790823052878271</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1751176767109346</v>
+      </c>
+      <c r="F85">
+        <v>-0.01659273763971281</v>
+      </c>
+      <c r="G85">
+        <v>-0.1167269372003793</v>
+      </c>
+      <c r="H85">
+        <v>-0.02734429055785458</v>
+      </c>
+      <c r="I85">
+        <v>-0.07730901921638135</v>
+      </c>
+      <c r="J85">
+        <v>-0.02852705732599925</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>-0.02957889152050458</v>
+        <v>-0.01727261481530569</v>
       </c>
       <c r="C86">
-        <v>0.04721420551469751</v>
+        <v>0.06968194333831225</v>
       </c>
       <c r="D86">
-        <v>-0.09468991734592123</v>
+        <v>0.006893598544796661</v>
       </c>
       <c r="E86">
-        <v>-0.0005615880318752254</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.07158630609552398</v>
+      </c>
+      <c r="F86">
+        <v>-0.05786273629800182</v>
+      </c>
+      <c r="G86">
+        <v>-0.05710853478182337</v>
+      </c>
+      <c r="H86">
+        <v>-0.06620594446257685</v>
+      </c>
+      <c r="I86">
+        <v>-0.04699616384212825</v>
+      </c>
+      <c r="J86">
+        <v>0.1974103791674547</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>-0.02133957956926654</v>
+        <v>-0.01528404199551893</v>
       </c>
       <c r="C87">
-        <v>0.1195836764886831</v>
+        <v>0.1214756106053271</v>
       </c>
       <c r="D87">
-        <v>-0.1140324894909253</v>
+        <v>0.01920669415417516</v>
       </c>
       <c r="E87">
-        <v>-0.0970068355035814</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.1089643822313752</v>
+      </c>
+      <c r="F87">
+        <v>-0.02158483210201752</v>
+      </c>
+      <c r="G87">
+        <v>-0.02063414037800994</v>
+      </c>
+      <c r="H87">
+        <v>-0.01132459623603749</v>
+      </c>
+      <c r="I87">
+        <v>0.1489964716937522</v>
+      </c>
+      <c r="J87">
+        <v>0.08857634783006268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>-0.02221599777443837</v>
+        <v>-0.03490711516591128</v>
       </c>
       <c r="C88">
-        <v>0.07433772823262087</v>
+        <v>0.08330992683093741</v>
       </c>
       <c r="D88">
-        <v>0.05414228854888703</v>
+        <v>-0.02745642349943671</v>
       </c>
       <c r="E88">
-        <v>0.004750269826237278</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01598820707619858</v>
+      </c>
+      <c r="F88">
+        <v>-0.008455435236248639</v>
+      </c>
+      <c r="G88">
+        <v>0.02487231157834715</v>
+      </c>
+      <c r="H88">
+        <v>-0.004592795002442799</v>
+      </c>
+      <c r="I88">
+        <v>-0.02870672976511942</v>
+      </c>
+      <c r="J88">
+        <v>-0.06978247839056397</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.4422929581353049</v>
+        <v>-0.4066484040053903</v>
       </c>
       <c r="C89">
-        <v>-0.09220568541461069</v>
+        <v>-0.111393362767972</v>
       </c>
       <c r="D89">
-        <v>0.04604413429432948</v>
+        <v>0.01144257283167486</v>
       </c>
       <c r="E89">
-        <v>-0.2602390082032277</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.05178889916526978</v>
+      </c>
+      <c r="F89">
+        <v>0.08879301523157102</v>
+      </c>
+      <c r="G89">
+        <v>-0.09384262530042389</v>
+      </c>
+      <c r="H89">
+        <v>-0.04786864956581061</v>
+      </c>
+      <c r="I89">
+        <v>0.7525470927872341</v>
+      </c>
+      <c r="J89">
+        <v>-0.1417310896401697</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.3309435070843741</v>
+        <v>-0.3264239094050361</v>
       </c>
       <c r="C90">
-        <v>-0.04611011069854163</v>
+        <v>-0.06314210550781579</v>
       </c>
       <c r="D90">
-        <v>-0.06570450319421149</v>
+        <v>0.01776823230169442</v>
       </c>
       <c r="E90">
-        <v>0.004590353525794959</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.04081922431311855</v>
+      </c>
+      <c r="F90">
+        <v>-0.02100059117057723</v>
+      </c>
+      <c r="G90">
+        <v>-0.01921527375643447</v>
+      </c>
+      <c r="H90">
+        <v>0.009677625396793257</v>
+      </c>
+      <c r="I90">
+        <v>-0.1600077388055549</v>
+      </c>
+      <c r="J90">
+        <v>0.01005448420384761</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>-0.03949185988938094</v>
+        <v>-0.04908501632459198</v>
       </c>
       <c r="C91">
-        <v>0.1409586567801718</v>
+        <v>0.1210413490723947</v>
       </c>
       <c r="D91">
-        <v>0.0860623257404174</v>
+        <v>-0.03626361229702538</v>
       </c>
       <c r="E91">
-        <v>0.06245236164754232</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.09902801207186615</v>
+      </c>
+      <c r="F91">
+        <v>0.02438578442723413</v>
+      </c>
+      <c r="G91">
+        <v>-0.06836731085106758</v>
+      </c>
+      <c r="H91">
+        <v>-0.01386608939189349</v>
+      </c>
+      <c r="I91">
+        <v>-0.03000641981793302</v>
+      </c>
+      <c r="J91">
+        <v>-0.02487603269888713</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>-0.3519280959902469</v>
+        <v>-0.3508879160714461</v>
       </c>
       <c r="C92">
-        <v>-0.1036600839727414</v>
+        <v>-0.1154489897611832</v>
       </c>
       <c r="D92">
-        <v>-0.07429615695075407</v>
+        <v>0.04741446402889286</v>
       </c>
       <c r="E92">
-        <v>0.02047565590994395</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.0702010419415923</v>
+      </c>
+      <c r="F92">
+        <v>-0.1036058416117357</v>
+      </c>
+      <c r="G92">
+        <v>0.003422053774773904</v>
+      </c>
+      <c r="H92">
+        <v>-0.0411962364107685</v>
+      </c>
+      <c r="I92">
+        <v>-0.150634582683275</v>
+      </c>
+      <c r="J92">
+        <v>-0.008621828680624962</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.3333201615401563</v>
+        <v>-0.3238881558399662</v>
       </c>
       <c r="C93">
-        <v>-0.0806313480594834</v>
+        <v>-0.1057006224446944</v>
       </c>
       <c r="D93">
-        <v>0.012931686185199</v>
+        <v>-0.003369932072783939</v>
       </c>
       <c r="E93">
-        <v>0.02239878281156241</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.001501167163938575</v>
+      </c>
+      <c r="F93">
+        <v>-0.02245210448000919</v>
+      </c>
+      <c r="G93">
+        <v>-0.02850156430977088</v>
+      </c>
+      <c r="H93">
+        <v>-0.03893123293939064</v>
+      </c>
+      <c r="I93">
+        <v>-0.1153104828588362</v>
+      </c>
+      <c r="J93">
+        <v>0.05003446778000134</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>-0.09177407112005344</v>
+        <v>-0.08586044021107334</v>
       </c>
       <c r="C94">
-        <v>0.2381004891794707</v>
+        <v>0.2006846239179089</v>
       </c>
       <c r="D94">
-        <v>0.2593612710729798</v>
+        <v>-0.1154227781376017</v>
       </c>
       <c r="E94">
-        <v>0.123507574952163</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.3381321288542879</v>
+      </c>
+      <c r="F94">
+        <v>-0.06054600280587796</v>
+      </c>
+      <c r="G94">
+        <v>-0.3467079577814208</v>
+      </c>
+      <c r="H94">
+        <v>0.0559238142633584</v>
+      </c>
+      <c r="I94">
+        <v>0.2026844857076818</v>
+      </c>
+      <c r="J94">
+        <v>-0.1928972145436151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>-0.02798059499573832</v>
+        <v>-0.03303978552591393</v>
       </c>
       <c r="C95">
-        <v>0.06898962177399375</v>
+        <v>0.1139012289209124</v>
       </c>
       <c r="D95">
-        <v>0.006316764312811333</v>
+        <v>-0.007013127613856734</v>
       </c>
       <c r="E95">
-        <v>-0.01183526400359865</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.004069975224389463</v>
+      </c>
+      <c r="F95">
+        <v>-0.01288382161195369</v>
+      </c>
+      <c r="G95">
+        <v>0.1309186969731058</v>
+      </c>
+      <c r="H95">
+        <v>-0.04633105010466366</v>
+      </c>
+      <c r="I95">
+        <v>0.001800115896782951</v>
+      </c>
+      <c r="J95">
+        <v>-0.1080689139334377</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +3766,121 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.004393828457917987</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.008240581918950968</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.02043873589207943</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.01837222670942271</v>
+      </c>
+      <c r="F97">
+        <v>-0.01218533770745379</v>
+      </c>
+      <c r="G97">
+        <v>0.03587278347024381</v>
+      </c>
+      <c r="H97">
+        <v>0.01507290357324214</v>
+      </c>
+      <c r="I97">
+        <v>-0.006023815540664812</v>
+      </c>
+      <c r="J97">
+        <v>0.01116125815687546</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>-0.07766521141113358</v>
+        <v>-0.1274099366292309</v>
       </c>
       <c r="C98">
-        <v>0.1550719480496568</v>
+        <v>0.1745365294729226</v>
       </c>
       <c r="D98">
-        <v>0.03525338452057408</v>
+        <v>-0.05704353520515022</v>
       </c>
       <c r="E98">
-        <v>0.006547259315906465</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06729328507598367</v>
+      </c>
+      <c r="F98">
+        <v>0.1002006874313214</v>
+      </c>
+      <c r="G98">
+        <v>0.3453871500633206</v>
+      </c>
+      <c r="H98">
+        <v>0.3417041601344296</v>
+      </c>
+      <c r="I98">
+        <v>0.038191161495774</v>
+      </c>
+      <c r="J98">
+        <v>0.1361964847196711</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>-0.001376235405565142</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.008033138674860605</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.009294653303243259</v>
       </c>
       <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.00553129381242422</v>
+      </c>
+      <c r="F99">
+        <v>-0.0007379482682901381</v>
+      </c>
+      <c r="G99">
+        <v>0.005437942731180786</v>
+      </c>
+      <c r="H99">
+        <v>-0.0187865624467417</v>
+      </c>
+      <c r="I99">
+        <v>0.01941660468827102</v>
+      </c>
+      <c r="J99">
+        <v>-0.006268851098062469</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3894,89 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.002068428678406713</v>
+        <v>-0.005536255222602268</v>
       </c>
       <c r="C101">
-        <v>0.0584728279157585</v>
+        <v>0.08103801317059038</v>
       </c>
       <c r="D101">
-        <v>-0.04666733033144809</v>
+        <v>-0.01861335756523662</v>
       </c>
       <c r="E101">
-        <v>-0.08732138024307369</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.1312463642431407</v>
+      </c>
+      <c r="F101">
+        <v>0.05782877022468308</v>
+      </c>
+      <c r="G101">
+        <v>0.142362405385844</v>
+      </c>
+      <c r="H101">
+        <v>-0.2394430722296135</v>
+      </c>
+      <c r="I101">
+        <v>0.05311630446831633</v>
+      </c>
+      <c r="J101">
+        <v>-0.2639187185188515</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>-0.02331871267753959</v>
+        <v>-0.01014582591171149</v>
       </c>
       <c r="C102">
-        <v>0.0874150495945238</v>
+        <v>0.04197696353068915</v>
       </c>
       <c r="D102">
-        <v>0.06457837200000363</v>
+        <v>-0.01948951679190281</v>
       </c>
       <c r="E102">
-        <v>0.03214264337754135</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.0517897051041497</v>
+      </c>
+      <c r="F102">
+        <v>0.008400556725960589</v>
+      </c>
+      <c r="G102">
+        <v>-0.0433018771808505</v>
+      </c>
+      <c r="H102">
+        <v>-0.009498684791789684</v>
+      </c>
+      <c r="I102">
+        <v>0.005015913670622507</v>
+      </c>
+      <c r="J102">
+        <v>-0.006517903715664942</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3990,25 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4020,21 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
